--- a/baidu_seo.xlsx
+++ b/baidu_seo.xlsx
@@ -70,7 +70,7 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>59</x:t>
+    <x:t>54</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -82,7 +82,7 @@
     <x:t>ai抠图</x:t>
   </x:si>
   <x:si>
-    <x:t>247</x:t>
+    <x:t>264</x:t>
   </x:si>
   <x:si>
     <x:t>15</x:t>
@@ -112,6 +112,111 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>人像抠图</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>在线人像抠图</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>人物抠图</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>在线人物抠图</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>发丝抠图</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
     <x:t>100名以外</x:t>
   </x:si>
   <x:si>
@@ -121,19 +226,19 @@
     <x:t>0</x:t>
   </x:si>
   <x:si>
-    <x:t>人像抠图</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
+    <x:t>一键抠图</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100名以外</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -142,115 +247,10 @@
     <x:t>0</x:t>
   </x:si>
   <x:si>
-    <x:t>在线人像抠图</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>人物抠图</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>在线人物抠图</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>发丝抠图</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100名以外</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>一键抠图</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
     <x:t>ps抠图</x:t>
   </x:si>
   <x:si>
-    <x:t>4054</x:t>
+    <x:t>3192</x:t>
   </x:si>
   <x:si>
     <x:t>498</x:t>
